--- a/Code/Results/Cases/Case_2_168/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_168/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001137212348022</v>
+        <v>1.027239793340086</v>
       </c>
       <c r="D2">
-        <v>1.018198885251481</v>
+        <v>1.032067801183329</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9780528776914263</v>
+        <v>1.025769974936533</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041129380823214</v>
+        <v>1.033403940087093</v>
       </c>
       <c r="J2">
-        <v>1.023283962711794</v>
+        <v>1.032398770331024</v>
       </c>
       <c r="K2">
-        <v>1.029410371836698</v>
+        <v>1.034874100395477</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9898266820099563</v>
+        <v>1.028594574845461</v>
       </c>
       <c r="N2">
-        <v>1.024737143311157</v>
+        <v>1.033864895002695</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005413897461191</v>
+        <v>1.028112611192807</v>
       </c>
       <c r="D3">
-        <v>1.021313874958671</v>
+        <v>1.032720676740583</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9849894955407731</v>
+        <v>1.027275593639262</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042318791634305</v>
+        <v>1.033592032695794</v>
       </c>
       <c r="J3">
-        <v>1.025758054394711</v>
+        <v>1.032912082982618</v>
       </c>
       <c r="K3">
-        <v>1.031681114911144</v>
+        <v>1.035336088330424</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9958181110691556</v>
+        <v>1.029905673537739</v>
       </c>
       <c r="N3">
-        <v>1.027214748488045</v>
+        <v>1.034378936617125</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008119095084206</v>
+        <v>1.028677286501425</v>
       </c>
       <c r="D4">
-        <v>1.023286324861901</v>
+        <v>1.033143012491502</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9893660770963614</v>
+        <v>1.028249758446725</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043061104160857</v>
+        <v>1.033712509755861</v>
       </c>
       <c r="J4">
-        <v>1.027317369355151</v>
+        <v>1.033243504317966</v>
       </c>
       <c r="K4">
-        <v>1.033111598827064</v>
+        <v>1.035634223753689</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.999594561481698</v>
+        <v>1.030753482017496</v>
       </c>
       <c r="N4">
-        <v>1.028776277854585</v>
+        <v>1.034710828608784</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009242057379557</v>
+        <v>1.028914652776369</v>
       </c>
       <c r="D5">
-        <v>1.024105570130414</v>
+        <v>1.03332053341386</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.9911805523720104</v>
+        <v>1.028659284792242</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043366811989746</v>
+        <v>1.033762863349811</v>
       </c>
       <c r="J5">
-        <v>1.027963295662864</v>
+        <v>1.033382659882959</v>
       </c>
       <c r="K5">
-        <v>1.0337039817647</v>
+        <v>1.035759367684697</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.001159293522492</v>
+        <v>1.031109770439057</v>
       </c>
       <c r="N5">
-        <v>1.029423121451743</v>
+        <v>1.034850181790641</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009429784770032</v>
+        <v>1.028954506250815</v>
       </c>
       <c r="D6">
-        <v>1.024242550256739</v>
+        <v>1.033350338235661</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.9914837562588984</v>
+        <v>1.028728045462978</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043417773702085</v>
+        <v>1.033771300638585</v>
       </c>
       <c r="J6">
-        <v>1.028071195686437</v>
+        <v>1.03340601451051</v>
       </c>
       <c r="K6">
-        <v>1.033802926673692</v>
+        <v>1.035780368622366</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.001420708696966</v>
+        <v>1.031169585304779</v>
       </c>
       <c r="N6">
-        <v>1.029531174705727</v>
+        <v>1.034873569584442</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008134155638029</v>
+        <v>1.028680458292711</v>
       </c>
       <c r="D7">
-        <v>1.023297310382875</v>
+        <v>1.033145384649685</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.989390420457557</v>
+        <v>1.028255230601465</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043065213806505</v>
+        <v>1.033713183742241</v>
       </c>
       <c r="J7">
-        <v>1.027326037570569</v>
+        <v>1.033245364405122</v>
       </c>
       <c r="K7">
-        <v>1.033119549220281</v>
+        <v>1.035635896688599</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>0.9996155579798667</v>
+        <v>1.030758243267925</v>
       </c>
       <c r="N7">
-        <v>1.028784958379863</v>
+        <v>1.034712691337477</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002595748150821</v>
+        <v>1.027534786025475</v>
       </c>
       <c r="D8">
-        <v>1.01926076972159</v>
+        <v>1.032288467639116</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9804211441427561</v>
+        <v>1.026278823272501</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041537115212831</v>
+        <v>1.033467761749512</v>
       </c>
       <c r="J8">
-        <v>1.02412892029384</v>
+        <v>1.03257239707061</v>
       </c>
       <c r="K8">
-        <v>1.030186012053927</v>
+        <v>1.035030397203136</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9918730212802845</v>
+        <v>1.029037785044448</v>
       </c>
       <c r="N8">
-        <v>1.025583300829887</v>
+        <v>1.03403876831216</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9923334759615909</v>
+        <v>1.025515236114998</v>
       </c>
       <c r="D9">
-        <v>1.011800007385578</v>
+        <v>1.030777593288499</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9636935199428035</v>
+        <v>1.022795394449915</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038626522717987</v>
+        <v>1.033025872071105</v>
       </c>
       <c r="J9">
-        <v>1.018159894238324</v>
+        <v>1.031380983763311</v>
       </c>
       <c r="K9">
-        <v>1.024704495385398</v>
+        <v>1.033957301875575</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.977404455036373</v>
+        <v>1.026001657715081</v>
       </c>
       <c r="N9">
-        <v>1.019605798072715</v>
+        <v>1.032845663061307</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9851125598602499</v>
+        <v>1.024168386948189</v>
       </c>
       <c r="D10">
-        <v>1.006566003604747</v>
+        <v>1.029769792084236</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9518199023678419</v>
+        <v>1.020472323463416</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036526409494284</v>
+        <v>1.032724950046439</v>
       </c>
       <c r="J10">
-        <v>1.013929554252646</v>
+        <v>1.030582973258104</v>
       </c>
       <c r="K10">
-        <v>1.020817710255058</v>
+        <v>1.03323779914604</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9671171872297251</v>
+        <v>1.023974333680719</v>
       </c>
       <c r="N10">
-        <v>1.01536945051903</v>
+        <v>1.03204651928965</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9818855727641519</v>
+        <v>1.023585072567535</v>
       </c>
       <c r="D11">
-        <v>1.004231376141552</v>
+        <v>1.029333279619038</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9464813672025586</v>
+        <v>1.01946615841941</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035575845067618</v>
+        <v>1.032593147639104</v>
       </c>
       <c r="J11">
-        <v>1.012031844307325</v>
+        <v>1.030236539818349</v>
       </c>
       <c r="K11">
-        <v>1.019073933655184</v>
+        <v>1.032925275053062</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9624884290350266</v>
+        <v>1.023095657726011</v>
       </c>
       <c r="N11">
-        <v>1.013469045607917</v>
+        <v>1.031699593874674</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9806708927053542</v>
+        <v>1.023368385574309</v>
       </c>
       <c r="D12">
-        <v>1.00335331793817</v>
+        <v>1.029171120770024</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.944466276626302</v>
+        <v>1.019092379327999</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035216259404901</v>
+        <v>1.032543964869332</v>
       </c>
       <c r="J12">
-        <v>1.01131643675616</v>
+        <v>1.030107725252209</v>
       </c>
       <c r="K12">
-        <v>1.018416554425743</v>
+        <v>1.032809043372926</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.960740789511104</v>
+        <v>1.022769148736345</v>
       </c>
       <c r="N12">
-        <v>1.01275262209597</v>
+        <v>1.031570596377074</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9809321877425904</v>
+        <v>1.023414866488223</v>
       </c>
       <c r="D13">
-        <v>1.003542166988236</v>
+        <v>1.029205905230645</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9449000170665515</v>
+        <v>1.019172558319037</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035293691421953</v>
+        <v>1.032554524943409</v>
       </c>
       <c r="J13">
-        <v>1.011470380238596</v>
+        <v>1.030135362468672</v>
       </c>
       <c r="K13">
-        <v>1.018558010877979</v>
+        <v>1.032833982082231</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9611169820162018</v>
+        <v>1.02283919196454</v>
       </c>
       <c r="N13">
-        <v>1.012906784195809</v>
+        <v>1.031598272841556</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9817854999126113</v>
+        <v>1.023567161521874</v>
       </c>
       <c r="D14">
-        <v>1.00415902116419</v>
+        <v>1.029319875896096</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9463154698682736</v>
+        <v>1.019435262664923</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035546256198274</v>
+        <v>1.032589086775606</v>
       </c>
       <c r="J14">
-        <v>1.011972926681705</v>
+        <v>1.030225894695457</v>
       </c>
       <c r="K14">
-        <v>1.019019794863483</v>
+        <v>1.032915670290297</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9623445592968168</v>
+        <v>1.023068671062631</v>
       </c>
       <c r="N14">
-        <v>1.013410044312511</v>
+        <v>1.031688933634486</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9823090987086122</v>
+        <v>1.023660993123407</v>
       </c>
       <c r="D15">
-        <v>1.004537625106812</v>
+        <v>1.029390094524544</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9471832413466272</v>
+        <v>1.019597117407594</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035700997999893</v>
+        <v>1.032610351583299</v>
       </c>
       <c r="J15">
-        <v>1.012281149864391</v>
+        <v>1.030281656860344</v>
       </c>
       <c r="K15">
-        <v>1.019303017997529</v>
+        <v>1.032965981706283</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9630970909502914</v>
+        <v>1.023210043391474</v>
       </c>
       <c r="N15">
-        <v>1.013718705207469</v>
+        <v>1.031744774988043</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C16">
-        <v>0.9853245309566815</v>
+        <v>1.024207097073332</v>
       </c>
       <c r="D16">
-        <v>1.00671945539782</v>
+        <v>1.029798759329872</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9521698420630045</v>
+        <v>1.02053909337419</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036588601153306</v>
+        <v>1.032733665714106</v>
       </c>
       <c r="J16">
-        <v>1.014054059196249</v>
+        <v>1.030605946152296</v>
       </c>
       <c r="K16">
-        <v>1.020932114227242</v>
+        <v>1.033258519815755</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9674205340684371</v>
+        <v>1.024032630592916</v>
       </c>
       <c r="N16">
-        <v>1.015494132273934</v>
+        <v>1.032069524807987</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9871885276146107</v>
+        <v>1.024549621537389</v>
       </c>
       <c r="D17">
-        <v>1.008069364056247</v>
+        <v>1.030055070102363</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9552433355034751</v>
+        <v>1.02112989650787</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037134128032124</v>
+        <v>1.032810615535791</v>
       </c>
       <c r="J17">
-        <v>1.01514809291097</v>
+        <v>1.030809126007173</v>
       </c>
       <c r="K17">
-        <v>1.021937372081501</v>
+        <v>1.033441760381405</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9700844199022869</v>
+        <v>1.024548391926353</v>
       </c>
       <c r="N17">
-        <v>1.016589719642018</v>
+        <v>1.032272993201563</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9882661592613537</v>
+        <v>1.024749398707359</v>
       </c>
       <c r="D18">
-        <v>1.008850200474671</v>
+        <v>1.030204559464565</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9570172096739299</v>
+        <v>1.021474477268564</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037448371974286</v>
+        <v>1.032855354219148</v>
       </c>
       <c r="J18">
-        <v>1.015779905420595</v>
+        <v>1.030927551550502</v>
       </c>
       <c r="K18">
-        <v>1.022517896785543</v>
+        <v>1.033548547454906</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9716215569231461</v>
+        <v>1.02484914689877</v>
       </c>
       <c r="N18">
-        <v>1.017222429397876</v>
+        <v>1.032391586922747</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9886320024066719</v>
+        <v>1.024817515601469</v>
       </c>
       <c r="D19">
-        <v>1.009115353627416</v>
+        <v>1.030255529358635</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9576189303315067</v>
+        <v>1.02159196637978</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037554859645982</v>
+        <v>1.032870584384154</v>
       </c>
       <c r="J19">
-        <v>1.015994282851403</v>
+        <v>1.030967917045506</v>
       </c>
       <c r="K19">
-        <v>1.022714868017463</v>
+        <v>1.033584943131533</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9721429155234287</v>
+        <v>1.024951683165445</v>
       </c>
       <c r="N19">
-        <v>1.017437111269225</v>
+        <v>1.032432009741383</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9869895387251648</v>
+        <v>1.024512873099495</v>
       </c>
       <c r="D20">
-        <v>1.00792521263002</v>
+        <v>1.030027571658249</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9549155448908354</v>
+        <v>1.021066511518348</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037076009175275</v>
+        <v>1.032802374529843</v>
       </c>
       <c r="J20">
-        <v>1.015031371232302</v>
+        <v>1.030787335609918</v>
       </c>
       <c r="K20">
-        <v>1.021830123643781</v>
+        <v>1.033422110129811</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9698003482730178</v>
+        <v>1.024493063913137</v>
       </c>
       <c r="N20">
-        <v>1.016472832205177</v>
+        <v>1.032251171859444</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9815346715563621</v>
+        <v>1.023522314929384</v>
       </c>
       <c r="D21">
-        <v>1.003977678389509</v>
+        <v>1.029286314887306</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9458995624367375</v>
+        <v>1.019357904058383</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035472064370355</v>
+        <v>1.032578915401621</v>
       </c>
       <c r="J21">
-        <v>1.011825234666881</v>
+        <v>1.030199238904478</v>
       </c>
       <c r="K21">
-        <v>1.018884082265552</v>
+        <v>1.03289161918721</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.961983868193704</v>
+        <v>1.023001098803983</v>
       </c>
       <c r="N21">
-        <v>1.013262142558085</v>
+        <v>1.031662239989226</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9780116703455383</v>
+        <v>1.0228994071677</v>
       </c>
       <c r="D22">
-        <v>1.00143244705425</v>
+        <v>1.028820149493308</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9400435671922731</v>
+        <v>1.018283373967323</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034425794173024</v>
+        <v>1.032437113202197</v>
       </c>
       <c r="J22">
-        <v>1.009748236743917</v>
+        <v>1.029828705204019</v>
       </c>
       <c r="K22">
-        <v>1.01697558019896</v>
+        <v>1.032557231985072</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9569042986840507</v>
+        <v>1.022062288845682</v>
       </c>
       <c r="N22">
-        <v>1.011182195059834</v>
+        <v>1.031291180088412</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9798884712623985</v>
+        <v>1.02322963228771</v>
       </c>
       <c r="D23">
-        <v>1.00278793994105</v>
+        <v>1.029067282636017</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9431666025725693</v>
+        <v>1.018853029271652</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03498413820114</v>
+        <v>1.032512408874064</v>
       </c>
       <c r="J23">
-        <v>1.010855309175431</v>
+        <v>1.030025205528712</v>
       </c>
       <c r="K23">
-        <v>1.01799283265037</v>
+        <v>1.032734577168431</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9596134910727299</v>
+        <v>1.022560042658781</v>
       </c>
       <c r="N23">
-        <v>1.012290839661184</v>
+        <v>1.031487959466105</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9870794828535678</v>
+        <v>1.024529478172318</v>
       </c>
       <c r="D24">
-        <v>1.007990368627729</v>
+        <v>1.030039997059702</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9550637174034238</v>
+        <v>1.02109515254179</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037102282776775</v>
+        <v>1.0328060987332</v>
       </c>
       <c r="J24">
-        <v>1.015084132217238</v>
+        <v>1.030797182017552</v>
       </c>
       <c r="K24">
-        <v>1.021878602558832</v>
+        <v>1.033430989523186</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9699287593494013</v>
+        <v>1.024518064506444</v>
       </c>
       <c r="N24">
-        <v>1.016525668116763</v>
+        <v>1.032261032250106</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9950501614139751</v>
+        <v>1.026037423762437</v>
       </c>
       <c r="D25">
-        <v>1.013772591819799</v>
+        <v>1.031168290509904</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9681372001778378</v>
+        <v>1.023696061872705</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039406094174011</v>
+        <v>1.033141227220406</v>
       </c>
       <c r="J25">
-        <v>1.019745263405146</v>
+        <v>1.031689651136755</v>
       </c>
       <c r="K25">
-        <v>1.026160803046159</v>
+        <v>1.034235447440588</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9812511399230179</v>
+        <v>1.026787122659921</v>
       </c>
       <c r="N25">
-        <v>1.021193418645598</v>
+        <v>1.033154768777826</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_168/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_168/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027239793340086</v>
+        <v>1.001137212348023</v>
       </c>
       <c r="D2">
-        <v>1.032067801183329</v>
+        <v>1.018198885251481</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.025769974936533</v>
+        <v>0.9780528776914265</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033403940087093</v>
+        <v>1.041129380823214</v>
       </c>
       <c r="J2">
-        <v>1.032398770331024</v>
+        <v>1.023283962711795</v>
       </c>
       <c r="K2">
-        <v>1.034874100395477</v>
+        <v>1.029410371836699</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.028594574845461</v>
+        <v>0.9898266820099563</v>
       </c>
       <c r="N2">
-        <v>1.033864895002695</v>
+        <v>1.024737143311157</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028112611192807</v>
+        <v>1.005413897461191</v>
       </c>
       <c r="D3">
-        <v>1.032720676740583</v>
+        <v>1.021313874958671</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.027275593639262</v>
+        <v>0.9849894955407726</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033592032695794</v>
+        <v>1.042318791634305</v>
       </c>
       <c r="J3">
-        <v>1.032912082982618</v>
+        <v>1.025758054394711</v>
       </c>
       <c r="K3">
-        <v>1.035336088330424</v>
+        <v>1.031681114911144</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.029905673537739</v>
+        <v>0.9958181110691552</v>
       </c>
       <c r="N3">
-        <v>1.034378936617125</v>
+        <v>1.027214748488045</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028677286501425</v>
+        <v>1.008119095084207</v>
       </c>
       <c r="D4">
-        <v>1.033143012491502</v>
+        <v>1.023286324861901</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.028249758446725</v>
+        <v>0.989366077096363</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033712509755861</v>
+        <v>1.043061104160858</v>
       </c>
       <c r="J4">
-        <v>1.033243504317966</v>
+        <v>1.027317369355152</v>
       </c>
       <c r="K4">
-        <v>1.035634223753689</v>
+        <v>1.033111598827064</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.030753482017496</v>
+        <v>0.9995945614816993</v>
       </c>
       <c r="N4">
-        <v>1.034710828608784</v>
+        <v>1.028776277854585</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028914652776369</v>
+        <v>1.009242057379557</v>
       </c>
       <c r="D5">
-        <v>1.03332053341386</v>
+        <v>1.024105570130415</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.028659284792242</v>
+        <v>0.9911805523720102</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033762863349811</v>
+        <v>1.043366811989746</v>
       </c>
       <c r="J5">
-        <v>1.033382659882959</v>
+        <v>1.027963295662863</v>
       </c>
       <c r="K5">
-        <v>1.035759367684697</v>
+        <v>1.033703981764699</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.031109770439057</v>
+        <v>1.001159293522492</v>
       </c>
       <c r="N5">
-        <v>1.034850181790641</v>
+        <v>1.029423121451743</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028954506250815</v>
+        <v>1.00942978477003</v>
       </c>
       <c r="D6">
-        <v>1.033350338235661</v>
+        <v>1.024242550256738</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.028728045462978</v>
+        <v>0.9914837562588976</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033771300638585</v>
+        <v>1.043417773702084</v>
       </c>
       <c r="J6">
-        <v>1.03340601451051</v>
+        <v>1.028071195686436</v>
       </c>
       <c r="K6">
-        <v>1.035780368622366</v>
+        <v>1.033802926673691</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.031169585304779</v>
+        <v>1.001420708696965</v>
       </c>
       <c r="N6">
-        <v>1.034873569584442</v>
+        <v>1.029531174705725</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028680458292711</v>
+        <v>1.008134155638028</v>
       </c>
       <c r="D7">
-        <v>1.033145384649685</v>
+        <v>1.023297310382873</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.028255230601465</v>
+        <v>0.9893904204575555</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033713183742241</v>
+        <v>1.043065213806504</v>
       </c>
       <c r="J7">
-        <v>1.033245364405122</v>
+        <v>1.027326037570568</v>
       </c>
       <c r="K7">
-        <v>1.035635896688599</v>
+        <v>1.033119549220279</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.030758243267925</v>
+        <v>0.9996155579798653</v>
       </c>
       <c r="N7">
-        <v>1.034712691337477</v>
+        <v>1.028784958379861</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027534786025475</v>
+        <v>1.002595748150821</v>
       </c>
       <c r="D8">
-        <v>1.032288467639116</v>
+        <v>1.01926076972159</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.026278823272501</v>
+        <v>0.9804211441427558</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033467761749512</v>
+        <v>1.041537115212831</v>
       </c>
       <c r="J8">
-        <v>1.03257239707061</v>
+        <v>1.02412892029384</v>
       </c>
       <c r="K8">
-        <v>1.035030397203136</v>
+        <v>1.030186012053926</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.029037785044448</v>
+        <v>0.9918730212802841</v>
       </c>
       <c r="N8">
-        <v>1.03403876831216</v>
+        <v>1.025583300829886</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025515236114998</v>
+        <v>0.9923334759615899</v>
       </c>
       <c r="D9">
-        <v>1.030777593288499</v>
+        <v>1.011800007385577</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.022795394449915</v>
+        <v>0.9636935199428023</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033025872071105</v>
+        <v>1.038626522717987</v>
       </c>
       <c r="J9">
-        <v>1.031380983763311</v>
+        <v>1.018159894238323</v>
       </c>
       <c r="K9">
-        <v>1.033957301875575</v>
+        <v>1.024704495385397</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.026001657715081</v>
+        <v>0.9774044550363717</v>
       </c>
       <c r="N9">
-        <v>1.032845663061307</v>
+        <v>1.019605798072714</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024168386948189</v>
+        <v>0.9851125598602496</v>
       </c>
       <c r="D10">
-        <v>1.029769792084236</v>
+        <v>1.006566003604747</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.020472323463416</v>
+        <v>0.9518199023678419</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032724950046439</v>
+        <v>1.036526409494284</v>
       </c>
       <c r="J10">
-        <v>1.030582973258104</v>
+        <v>1.013929554252646</v>
       </c>
       <c r="K10">
-        <v>1.03323779914604</v>
+        <v>1.020817710255058</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.023974333680719</v>
+        <v>0.9671171872297251</v>
       </c>
       <c r="N10">
-        <v>1.03204651928965</v>
+        <v>1.01536945051903</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023585072567535</v>
+        <v>0.981885572764151</v>
       </c>
       <c r="D11">
-        <v>1.029333279619038</v>
+        <v>1.004231376141551</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.01946615841941</v>
+        <v>0.9464813672025574</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032593147639104</v>
+        <v>1.035575845067618</v>
       </c>
       <c r="J11">
-        <v>1.030236539818349</v>
+        <v>1.012031844307324</v>
       </c>
       <c r="K11">
-        <v>1.032925275053062</v>
+        <v>1.019073933655182</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.023095657726011</v>
+        <v>0.9624884290350254</v>
       </c>
       <c r="N11">
-        <v>1.031699593874674</v>
+        <v>1.013469045607916</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023368385574309</v>
+        <v>0.9806708927053538</v>
       </c>
       <c r="D12">
-        <v>1.029171120770024</v>
+        <v>1.00335331793817</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.019092379327999</v>
+        <v>0.9444662766263016</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032543964869332</v>
+        <v>1.035216259404901</v>
       </c>
       <c r="J12">
-        <v>1.030107725252209</v>
+        <v>1.011316436756159</v>
       </c>
       <c r="K12">
-        <v>1.032809043372926</v>
+        <v>1.018416554425743</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.022769148736345</v>
+        <v>0.9607407895111034</v>
       </c>
       <c r="N12">
-        <v>1.031570596377074</v>
+        <v>1.01275262209597</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023414866488223</v>
+        <v>0.9809321877425911</v>
       </c>
       <c r="D13">
-        <v>1.029205905230645</v>
+        <v>1.003542166988237</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.019172558319037</v>
+        <v>0.944900017066552</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032554524943409</v>
+        <v>1.035293691421954</v>
       </c>
       <c r="J13">
-        <v>1.030135362468672</v>
+        <v>1.011470380238596</v>
       </c>
       <c r="K13">
-        <v>1.032833982082231</v>
+        <v>1.018558010877979</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.02283919196454</v>
+        <v>0.9611169820162023</v>
       </c>
       <c r="N13">
-        <v>1.031598272841556</v>
+        <v>1.01290678419581</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023567161521874</v>
+        <v>0.9817854999126114</v>
       </c>
       <c r="D14">
-        <v>1.029319875896096</v>
+        <v>1.00415902116419</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.019435262664923</v>
+        <v>0.946315469868274</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032589086775606</v>
+        <v>1.035546256198274</v>
       </c>
       <c r="J14">
-        <v>1.030225894695457</v>
+        <v>1.011972926681705</v>
       </c>
       <c r="K14">
-        <v>1.032915670290297</v>
+        <v>1.019019794863483</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.023068671062631</v>
+        <v>0.9623445592968173</v>
       </c>
       <c r="N14">
-        <v>1.031688933634486</v>
+        <v>1.013410044312511</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023660993123407</v>
+        <v>0.9823090987086118</v>
       </c>
       <c r="D15">
-        <v>1.029390094524544</v>
+        <v>1.004537625106812</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.019597117407594</v>
+        <v>0.9471832413466275</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032610351583299</v>
+        <v>1.035700997999893</v>
       </c>
       <c r="J15">
-        <v>1.030281656860344</v>
+        <v>1.01228114986439</v>
       </c>
       <c r="K15">
-        <v>1.032965981706283</v>
+        <v>1.019303017997528</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.023210043391474</v>
+        <v>0.9630970909502913</v>
       </c>
       <c r="N15">
-        <v>1.031744774988043</v>
+        <v>1.013718705207469</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024207097073332</v>
+        <v>0.9853245309566806</v>
       </c>
       <c r="D16">
-        <v>1.029798759329872</v>
+        <v>1.006719455397819</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.02053909337419</v>
+        <v>0.9521698420630039</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032733665714106</v>
+        <v>1.036588601153306</v>
       </c>
       <c r="J16">
-        <v>1.030605946152296</v>
+        <v>1.014054059196249</v>
       </c>
       <c r="K16">
-        <v>1.033258519815755</v>
+        <v>1.020932114227242</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.024032630592916</v>
+        <v>0.9674205340684364</v>
       </c>
       <c r="N16">
-        <v>1.032069524807987</v>
+        <v>1.015494132273934</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024549621537389</v>
+        <v>0.9871885276146101</v>
       </c>
       <c r="D17">
-        <v>1.030055070102363</v>
+        <v>1.008069364056247</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.02112989650787</v>
+        <v>0.955243335503474</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032810615535791</v>
+        <v>1.037134128032123</v>
       </c>
       <c r="J17">
-        <v>1.030809126007173</v>
+        <v>1.01514809291097</v>
       </c>
       <c r="K17">
-        <v>1.033441760381405</v>
+        <v>1.0219373720815</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.024548391926353</v>
+        <v>0.9700844199022856</v>
       </c>
       <c r="N17">
-        <v>1.032272993201563</v>
+        <v>1.016589719642017</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024749398707359</v>
+        <v>0.988266159261353</v>
       </c>
       <c r="D18">
-        <v>1.030204559464565</v>
+        <v>1.008850200474671</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.021474477268564</v>
+        <v>0.9570172096739288</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032855354219148</v>
+        <v>1.037448371974285</v>
       </c>
       <c r="J18">
-        <v>1.030927551550502</v>
+        <v>1.015779905420594</v>
       </c>
       <c r="K18">
-        <v>1.033548547454906</v>
+        <v>1.022517896785542</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.02484914689877</v>
+        <v>0.971621556923145</v>
       </c>
       <c r="N18">
-        <v>1.032391586922747</v>
+        <v>1.017222429397875</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024817515601469</v>
+        <v>0.9886320024066713</v>
       </c>
       <c r="D19">
-        <v>1.030255529358635</v>
+        <v>1.009115353627415</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.02159196637978</v>
+        <v>0.9576189303315056</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032870584384154</v>
+        <v>1.037554859645982</v>
       </c>
       <c r="J19">
-        <v>1.030967917045506</v>
+        <v>1.015994282851402</v>
       </c>
       <c r="K19">
-        <v>1.033584943131533</v>
+        <v>1.022714868017462</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.024951683165445</v>
+        <v>0.9721429155234278</v>
       </c>
       <c r="N19">
-        <v>1.032432009741383</v>
+        <v>1.017437111269224</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024512873099495</v>
+        <v>0.9869895387251651</v>
       </c>
       <c r="D20">
-        <v>1.030027571658249</v>
+        <v>1.00792521263002</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.021066511518348</v>
+        <v>0.9549155448908355</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032802374529843</v>
+        <v>1.037076009175275</v>
       </c>
       <c r="J20">
-        <v>1.030787335609918</v>
+        <v>1.015031371232302</v>
       </c>
       <c r="K20">
-        <v>1.033422110129811</v>
+        <v>1.021830123643782</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.024493063913137</v>
+        <v>0.9698003482730181</v>
       </c>
       <c r="N20">
-        <v>1.032251171859444</v>
+        <v>1.016472832205178</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023522314929384</v>
+        <v>0.9815346715563621</v>
       </c>
       <c r="D21">
-        <v>1.029286314887306</v>
+        <v>1.003977678389508</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.019357904058383</v>
+        <v>0.9458995624367379</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032578915401621</v>
+        <v>1.035472064370355</v>
       </c>
       <c r="J21">
-        <v>1.030199238904478</v>
+        <v>1.011825234666881</v>
       </c>
       <c r="K21">
-        <v>1.03289161918721</v>
+        <v>1.018884082265552</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.023001098803983</v>
+        <v>0.961983868193704</v>
       </c>
       <c r="N21">
-        <v>1.031662239989226</v>
+        <v>1.013262142558084</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.0228994071677</v>
+        <v>0.9780116703455385</v>
       </c>
       <c r="D22">
-        <v>1.028820149493308</v>
+        <v>1.00143244705425</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.018283373967323</v>
+        <v>0.940043567192273</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032437113202197</v>
+        <v>1.034425794173024</v>
       </c>
       <c r="J22">
-        <v>1.029828705204019</v>
+        <v>1.009748236743917</v>
       </c>
       <c r="K22">
-        <v>1.032557231985072</v>
+        <v>1.01697558019896</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.022062288845682</v>
+        <v>0.9569042986840505</v>
       </c>
       <c r="N22">
-        <v>1.031291180088412</v>
+        <v>1.011182195059834</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02322963228771</v>
+        <v>0.9798884712623984</v>
       </c>
       <c r="D23">
-        <v>1.029067282636017</v>
+        <v>1.00278793994105</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.018853029271652</v>
+        <v>0.9431666025725691</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032512408874064</v>
+        <v>1.03498413820114</v>
       </c>
       <c r="J23">
-        <v>1.030025205528712</v>
+        <v>1.010855309175431</v>
       </c>
       <c r="K23">
-        <v>1.032734577168431</v>
+        <v>1.01799283265037</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.022560042658781</v>
+        <v>0.9596134910727299</v>
       </c>
       <c r="N23">
-        <v>1.031487959466105</v>
+        <v>1.012290839661184</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024529478172318</v>
+        <v>0.9870794828535674</v>
       </c>
       <c r="D24">
-        <v>1.030039997059702</v>
+        <v>1.007990368627728</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.02109515254179</v>
+        <v>0.9550637174034228</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0328060987332</v>
+        <v>1.037102282776775</v>
       </c>
       <c r="J24">
-        <v>1.030797182017552</v>
+        <v>1.015084132217237</v>
       </c>
       <c r="K24">
-        <v>1.033430989523186</v>
+        <v>1.021878602558832</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.024518064506444</v>
+        <v>0.9699287593494004</v>
       </c>
       <c r="N24">
-        <v>1.032261032250106</v>
+        <v>1.016525668116763</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026037423762437</v>
+        <v>0.9950501614139752</v>
       </c>
       <c r="D25">
-        <v>1.031168290509904</v>
+        <v>1.013772591819799</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.023696061872705</v>
+        <v>0.9681372001778379</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033141227220406</v>
+        <v>1.039406094174011</v>
       </c>
       <c r="J25">
-        <v>1.031689651136755</v>
+        <v>1.019745263405146</v>
       </c>
       <c r="K25">
-        <v>1.034235447440588</v>
+        <v>1.026160803046159</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.026787122659921</v>
+        <v>0.981251139923018</v>
       </c>
       <c r="N25">
-        <v>1.033154768777826</v>
+        <v>1.021193418645598</v>
       </c>
     </row>
   </sheetData>
